--- a/results/mp/logistic/corona/confidence/84/topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,25 +43,22 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>19</t>
@@ -70,100 +67,109 @@
     <t>of</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>special</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>won</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>your</t>
+    <t>our</t>
   </si>
   <si>
     <t>you</t>
@@ -172,31 +178,25 @@
     <t>!</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>are</t>
+    <t>,</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +565,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7773972602739726</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7222222222222222</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4515503875968992</v>
+        <v>0.4224806201550387</v>
       </c>
       <c r="C5">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D5">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4406779661016949</v>
+        <v>0.2885906040268457</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4391534391534391</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="C7">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>106</v>
+        <v>265</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2550335570469799</v>
+        <v>0.1126005361930295</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8511749347258486</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L8">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,37 +923,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2222222222222222</v>
+        <v>0.01841680129240711</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>280</v>
+        <v>3038</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,37 +973,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1349206349206349</v>
+        <v>0.0146295422369042</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>218</v>
+        <v>2088</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,37 +1023,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0132013201320132</v>
+        <v>0.01310228233305156</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E11">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="F11">
-        <v>0.5600000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>2093</v>
+        <v>2335</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,37 +1073,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01310782241014799</v>
+        <v>0.009435816787890702</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="E12">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="F12">
-        <v>0.6899999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2334</v>
+        <v>5039</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.80625</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,37 +1123,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01261727596247169</v>
+        <v>0.008335027444602561</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="E13">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
       <c r="F13">
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>3052</v>
+        <v>4878</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8046875</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,37 +1173,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.009790483649892304</v>
+        <v>0.007955077211043519</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E14">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="F14">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>5057</v>
+        <v>4240</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1223,13 @@
         <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1249,13 +1249,13 @@
         <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7674418604651163</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1275,13 +1275,13 @@
         <v>35</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.734375</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1301,13 +1301,13 @@
         <v>36</v>
       </c>
       <c r="K18">
-        <v>0.76</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1327,13 +1327,13 @@
         <v>37</v>
       </c>
       <c r="K19">
-        <v>0.7586206896551724</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1353,13 +1353,13 @@
         <v>38</v>
       </c>
       <c r="K20">
-        <v>0.7291666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1379,13 +1379,13 @@
         <v>39</v>
       </c>
       <c r="K21">
-        <v>0.7142857142857143</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1405,13 +1405,13 @@
         <v>40</v>
       </c>
       <c r="K22">
-        <v>0.7073170731707317</v>
+        <v>0.66</v>
       </c>
       <c r="L22">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1431,13 +1431,13 @@
         <v>41</v>
       </c>
       <c r="K23">
-        <v>0.6441176470588236</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L23">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M23">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1457,25 +1457,25 @@
         <v>42</v>
       </c>
       <c r="K24">
-        <v>0.6292517006802721</v>
+        <v>0.6237288135593221</v>
       </c>
       <c r="L24">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M24">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1483,13 +1483,13 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5941422594142259</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L25">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1509,13 +1509,13 @@
         <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5846153846153846</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1535,13 +1535,13 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1561,13 +1561,13 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5425531914893617</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1587,13 +1587,13 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5280898876404494</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1613,13 +1613,13 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>0.3698630136986301</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1639,13 +1639,13 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>0.04753199268738574</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>521</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1665,13 +1665,13 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.04166666666666666</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L32">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>1150</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1691,25 +1691,25 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.02532928064842958</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>962</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1717,25 +1717,25 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>0.02335216572504708</v>
+        <v>0.05008347245409015</v>
       </c>
       <c r="L34">
+        <v>60</v>
+      </c>
+      <c r="M34">
         <v>62</v>
       </c>
-      <c r="M34">
-        <v>80</v>
-      </c>
       <c r="N34">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0.22</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>2593</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1743,25 +1743,25 @@
         <v>53</v>
       </c>
       <c r="K35">
-        <v>0.02024922118380062</v>
+        <v>0.03350253807106599</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N35">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="O35">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>1258</v>
+        <v>952</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1769,25 +1769,25 @@
         <v>54</v>
       </c>
       <c r="K36">
-        <v>0.01765447667087012</v>
+        <v>0.025</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N36">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1558</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1795,25 +1795,25 @@
         <v>55</v>
       </c>
       <c r="K37">
-        <v>0.01673640167364017</v>
+        <v>0.02180451127819549</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M37">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="N37">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="O37">
-        <v>0.08999999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2350</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1821,25 +1821,25 @@
         <v>56</v>
       </c>
       <c r="K38">
-        <v>0.01636764242996538</v>
+        <v>0.02137279079325935</v>
       </c>
       <c r="L38">
         <v>52</v>
       </c>
       <c r="M38">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="N38">
-        <v>0.68</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O38">
-        <v>0.32</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>3125</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1847,25 +1847,25 @@
         <v>57</v>
       </c>
       <c r="K39">
-        <v>0.01560574948665298</v>
+        <v>0.01979264844486334</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="M39">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="N39">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="O39">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2397</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1873,25 +1873,25 @@
         <v>58</v>
       </c>
       <c r="K40">
-        <v>0.01537028411737308</v>
+        <v>0.0196652719665272</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N40">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="O40">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>2114</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1899,77 +1899,129 @@
         <v>59</v>
       </c>
       <c r="K41">
-        <v>0.01468222043443282</v>
+        <v>0.01954602774274905</v>
       </c>
       <c r="L41">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="N41">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="O41">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>4899</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K42">
-        <v>0.01133919843597263</v>
+        <v>0.01553985872855701</v>
       </c>
       <c r="L42">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="M42">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="N42">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="O42">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>5057</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43">
+        <v>0.01524330662497557</v>
+      </c>
+      <c r="L43">
+        <v>78</v>
+      </c>
+      <c r="M43">
+        <v>126</v>
+      </c>
+      <c r="N43">
+        <v>0.62</v>
+      </c>
+      <c r="O43">
+        <v>0.38</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K43">
-        <v>0.008358486185279778</v>
-      </c>
-      <c r="L43">
-        <v>36</v>
-      </c>
-      <c r="M43">
-        <v>57</v>
-      </c>
-      <c r="N43">
-        <v>0.63</v>
-      </c>
-      <c r="O43">
-        <v>0.37</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>4271</v>
+      <c r="K44">
+        <v>0.01445221445221445</v>
+      </c>
+      <c r="L44">
+        <v>31</v>
+      </c>
+      <c r="M44">
+        <v>44</v>
+      </c>
+      <c r="N44">
+        <v>0.7</v>
+      </c>
+      <c r="O44">
+        <v>0.3</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45">
+        <v>0.01257568700512343</v>
+      </c>
+      <c r="L45">
+        <v>54</v>
+      </c>
+      <c r="M45">
+        <v>88</v>
+      </c>
+      <c r="N45">
+        <v>0.61</v>
+      </c>
+      <c r="O45">
+        <v>0.39</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>4240</v>
       </c>
     </row>
   </sheetData>
